--- a/GWR Outputs/GWR with T2D.xlsx
+++ b/GWR Outputs/GWR with T2D.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_8C32813522B42392B5C99F639105C9DD65BD8798" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C93CBD-E20D-42C1-BF2C-0C2736BAA1C7}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="470" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="470" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model 2 District-Level Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,23 @@
     <sheet name="Model 1 Parameters Summary" sheetId="24" r:id="rId24"/>
     <sheet name="Model 1_Sig" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1913,7 +1929,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1943,27 +1959,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2000,16 +2001,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,11 +2319,11 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2358,60 +2359,60 @@
       </c>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:18">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -2466,8 +2467,8 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:18">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -2522,8 +2523,8 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:18">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -2578,8 +2579,8 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:18">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -2634,8 +2635,8 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:18">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -2711,33 +2712,33 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2762,8 +2763,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2788,8 +2789,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2814,8 +2815,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2840,8 +2841,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2866,8 +2867,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2892,8 +2893,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2918,8 +2919,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -2944,8 +2945,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -2970,8 +2971,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -2996,8 +2997,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -3022,8 +3023,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -3048,8 +3049,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -3074,8 +3075,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -3100,8 +3101,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -3126,8 +3127,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -3152,8 +3153,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -3178,8 +3179,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -3204,8 +3205,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -3230,8 +3231,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -3256,8 +3257,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -3282,8 +3283,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -3308,8 +3309,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -3334,8 +3335,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -3360,8 +3361,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -3386,8 +3387,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -3412,8 +3413,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -3438,8 +3439,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -3464,8 +3465,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -3490,8 +3491,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -3516,8 +3517,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -3542,8 +3543,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -3568,8 +3569,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -3594,8 +3595,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -3620,8 +3621,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -3646,8 +3647,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -3672,8 +3673,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -3698,8 +3699,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -3724,8 +3725,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -3750,8 +3751,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -3776,8 +3777,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -3802,8 +3803,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -3828,8 +3829,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -3854,8 +3855,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -3880,8 +3881,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -3906,8 +3907,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -3932,8 +3933,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -3958,8 +3959,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -3984,8 +3985,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -4010,8 +4011,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -4036,8 +4037,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -4062,8 +4063,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -4088,8 +4089,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -4114,8 +4115,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -4140,8 +4141,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -4166,8 +4167,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -4192,8 +4193,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -4218,8 +4219,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -4244,8 +4245,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -4270,8 +4271,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -4296,8 +4297,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -4322,8 +4323,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
@@ -4348,8 +4349,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
@@ -4374,8 +4375,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -4400,8 +4401,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
@@ -4426,8 +4427,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -4452,8 +4453,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -4478,8 +4479,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -4504,8 +4505,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
@@ -4530,8 +4531,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
@@ -4556,8 +4557,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -4582,8 +4583,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -4608,8 +4609,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -4634,8 +4635,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
@@ -4660,8 +4661,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
@@ -4686,8 +4687,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -4712,8 +4713,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -4738,8 +4739,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -4764,8 +4765,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -4790,8 +4791,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -4816,8 +4817,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
@@ -4842,8 +4843,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
@@ -4868,8 +4869,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
@@ -4894,8 +4895,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
@@ -4920,8 +4921,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
@@ -4946,8 +4947,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
@@ -4972,8 +4973,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
@@ -4998,8 +4999,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
@@ -5024,8 +5025,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
@@ -5050,8 +5051,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
@@ -5076,8 +5077,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
@@ -5102,8 +5103,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
@@ -5128,8 +5129,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
@@ -5154,8 +5155,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
@@ -5180,8 +5181,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
@@ -5206,8 +5207,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
@@ -5232,8 +5233,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
@@ -5258,8 +5259,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
@@ -5284,8 +5285,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
@@ -5310,8 +5311,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
@@ -5336,8 +5337,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
@@ -5362,8 +5363,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
@@ -5388,8 +5389,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
@@ -5414,8 +5415,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
@@ -5440,8 +5441,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="2">
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
@@ -5466,8 +5467,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
@@ -5492,8 +5493,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
@@ -5518,8 +5519,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
@@ -5544,8 +5545,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
@@ -5570,8 +5571,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
@@ -5596,8 +5597,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
@@ -5622,8 +5623,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
@@ -5648,8 +5649,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
@@ -5674,8 +5675,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
@@ -5711,33 +5712,33 @@
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -5762,8 +5763,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5788,8 +5789,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5814,8 +5815,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5840,8 +5841,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5866,8 +5867,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -5892,8 +5893,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5918,8 +5919,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -5944,8 +5945,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -5970,8 +5971,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -5996,8 +5997,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -6022,8 +6023,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -6048,8 +6049,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -6074,8 +6075,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -6100,8 +6101,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -6126,8 +6127,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6152,8 +6153,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6178,8 +6179,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -6204,8 +6205,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6230,8 +6231,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6256,8 +6257,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -6282,8 +6283,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -6308,8 +6309,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -6334,8 +6335,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -6360,8 +6361,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -6386,8 +6387,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -6412,8 +6413,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -6438,8 +6439,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -6464,8 +6465,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -6490,8 +6491,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -6516,8 +6517,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -6542,8 +6543,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -6568,8 +6569,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -6594,8 +6595,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -6620,8 +6621,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -6646,8 +6647,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -6672,8 +6673,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -6698,8 +6699,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -6724,8 +6725,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -6750,8 +6751,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -6776,8 +6777,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -6802,8 +6803,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -6828,8 +6829,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -6854,8 +6855,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -6880,8 +6881,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -6906,8 +6907,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -6932,8 +6933,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -6958,8 +6959,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -6984,8 +6985,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -7010,8 +7011,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -7036,8 +7037,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -7062,8 +7063,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -7088,8 +7089,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -7114,8 +7115,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -7140,8 +7141,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -7166,8 +7167,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -7203,33 +7204,33 @@
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -7254,8 +7255,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -7280,8 +7281,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -7306,8 +7307,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -7332,8 +7333,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -7358,8 +7359,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -7384,8 +7385,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -7410,8 +7411,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -7436,8 +7437,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -7462,8 +7463,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -7488,8 +7489,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -7514,8 +7515,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -7540,8 +7541,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -7566,8 +7567,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -7592,8 +7593,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -7618,8 +7619,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -7644,8 +7645,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -7670,8 +7671,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -7696,8 +7697,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -7722,8 +7723,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -7748,8 +7749,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -7774,8 +7775,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -7800,8 +7801,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -7826,8 +7827,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -7852,8 +7853,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -7878,8 +7879,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -7904,8 +7905,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -7930,8 +7931,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -7956,8 +7957,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -7982,8 +7983,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -8008,8 +8009,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -8034,8 +8035,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -8060,8 +8061,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -8086,8 +8087,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -8112,8 +8113,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -8138,8 +8139,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -8164,8 +8165,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -8190,8 +8191,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -8216,8 +8217,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -8242,8 +8243,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -8268,8 +8269,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -8294,8 +8295,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -8320,8 +8321,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -8346,8 +8347,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -8372,8 +8373,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -8398,8 +8399,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -8424,8 +8425,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -8450,8 +8451,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -8476,8 +8477,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -8502,8 +8503,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -8528,8 +8529,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -8554,8 +8555,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -8580,8 +8581,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -8606,8 +8607,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -8632,8 +8633,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -8658,8 +8659,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -8684,8 +8685,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -8710,8 +8711,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -8736,8 +8737,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -8762,8 +8763,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -8788,8 +8789,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -8814,8 +8815,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
@@ -8840,8 +8841,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
@@ -8866,8 +8867,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -8892,8 +8893,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
@@ -8918,8 +8919,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -8944,8 +8945,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -8970,8 +8971,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -8996,8 +8997,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
@@ -9022,8 +9023,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
@@ -9048,8 +9049,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -9074,8 +9075,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -9100,8 +9101,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -9126,8 +9127,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
@@ -9152,8 +9153,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
@@ -9178,8 +9179,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -9204,8 +9205,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -9230,8 +9231,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -9256,8 +9257,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -9282,8 +9283,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -9308,8 +9309,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
@@ -9334,8 +9335,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
@@ -9360,8 +9361,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
@@ -9386,8 +9387,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
@@ -9412,8 +9413,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
@@ -9438,8 +9439,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
@@ -9464,8 +9465,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
@@ -9490,8 +9491,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
@@ -9516,8 +9517,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
@@ -9542,8 +9543,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
@@ -9568,8 +9569,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
@@ -9594,8 +9595,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
@@ -9620,8 +9621,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
@@ -9646,8 +9647,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
@@ -9672,8 +9673,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
@@ -9698,8 +9699,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
@@ -9724,8 +9725,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
@@ -9750,8 +9751,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
@@ -9776,8 +9777,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
@@ -9802,8 +9803,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
@@ -9828,8 +9829,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
@@ -9854,8 +9855,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
@@ -9880,8 +9881,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
@@ -9906,8 +9907,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
@@ -9932,8 +9933,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="2">
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
@@ -9958,8 +9959,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
@@ -9984,8 +9985,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
@@ -10010,8 +10011,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
@@ -10036,8 +10037,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
@@ -10062,8 +10063,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
@@ -10088,8 +10089,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
@@ -10114,8 +10115,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
@@ -10140,8 +10141,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
@@ -10166,8 +10167,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
@@ -10192,8 +10193,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="2">
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
@@ -10218,8 +10219,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="2">
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
@@ -10244,8 +10245,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="2">
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
@@ -10270,8 +10271,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="2">
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
@@ -10296,8 +10297,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="2">
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
@@ -10322,8 +10323,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
@@ -10348,8 +10349,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="2">
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
@@ -10374,8 +10375,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="2">
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
@@ -10400,8 +10401,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="2">
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
@@ -10426,8 +10427,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="2">
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
@@ -10452,8 +10453,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="2">
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
@@ -10489,33 +10490,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -10540,8 +10541,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -10566,8 +10567,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -10592,8 +10593,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -10618,8 +10619,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -10644,8 +10645,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -10670,8 +10671,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -10696,8 +10697,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -10722,8 +10723,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -10748,8 +10749,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -10774,8 +10775,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -10800,8 +10801,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -10826,8 +10827,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -10852,8 +10853,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -10878,8 +10879,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -10904,8 +10905,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -10930,8 +10931,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -10956,8 +10957,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -10982,8 +10983,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -11008,8 +11009,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -11034,8 +11035,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -11060,8 +11061,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -11086,8 +11087,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -11112,8 +11113,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -11138,8 +11139,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -11164,8 +11165,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -11190,8 +11191,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -11216,8 +11217,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -11242,8 +11243,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -11268,8 +11269,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -11294,8 +11295,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -11320,8 +11321,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -11359,33 +11360,33 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -11410,8 +11411,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -11436,8 +11437,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -11462,8 +11463,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -11488,8 +11489,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -11514,8 +11515,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -11540,8 +11541,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -11566,8 +11567,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -11592,8 +11593,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -11618,8 +11619,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -11644,8 +11645,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -11670,8 +11671,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -11696,8 +11697,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -11722,8 +11723,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -11748,8 +11749,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -11774,8 +11775,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -11800,8 +11801,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -11826,8 +11827,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -11852,8 +11853,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -11878,8 +11879,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -11904,8 +11905,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -11930,8 +11931,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -11956,8 +11957,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -11982,8 +11983,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -12008,8 +12009,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -12034,8 +12035,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -12060,8 +12061,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -12086,8 +12087,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -12112,8 +12113,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -12138,8 +12139,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -12164,8 +12165,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -12190,8 +12191,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -12216,8 +12217,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -12242,8 +12243,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -12268,8 +12269,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -12294,8 +12295,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -12320,8 +12321,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -12346,8 +12347,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -12372,8 +12373,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -12409,33 +12410,33 @@
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -12460,8 +12461,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -12486,8 +12487,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -12512,8 +12513,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -12538,8 +12539,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -12564,8 +12565,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -12590,8 +12591,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -12616,8 +12617,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -12642,8 +12643,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -12668,8 +12669,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -12694,8 +12695,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -12720,8 +12721,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -12746,8 +12747,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -12772,8 +12773,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -12798,8 +12799,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -12824,8 +12825,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -12850,8 +12851,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -12876,8 +12877,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -12902,8 +12903,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -12928,8 +12929,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -12954,8 +12955,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -12980,8 +12981,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -13006,8 +13007,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -13032,8 +13033,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -13058,8 +13059,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -13084,8 +13085,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -13110,8 +13111,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -13136,8 +13137,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -13162,8 +13163,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -13188,8 +13189,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -13214,8 +13215,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -13240,8 +13241,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -13266,8 +13267,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -13292,8 +13293,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -13318,8 +13319,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -13344,8 +13345,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -13370,8 +13371,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -13396,8 +13397,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -13422,8 +13423,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -13448,8 +13449,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -13474,8 +13475,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -13500,8 +13501,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -13526,8 +13527,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -13552,8 +13553,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -13578,8 +13579,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -13604,8 +13605,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -13630,8 +13631,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -13656,8 +13657,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -13682,8 +13683,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -13708,8 +13709,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -13734,8 +13735,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -13760,8 +13761,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -13786,8 +13787,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -13812,8 +13813,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -13838,8 +13839,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -13864,8 +13865,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -13890,8 +13891,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -13916,8 +13917,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -13942,8 +13943,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -13968,8 +13969,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -13994,8 +13995,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -14020,8 +14021,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
@@ -14046,8 +14047,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
@@ -14072,8 +14073,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -14098,8 +14099,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
@@ -14124,8 +14125,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -14150,8 +14151,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -14176,8 +14177,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -14202,8 +14203,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
@@ -14228,8 +14229,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
@@ -14254,8 +14255,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -14280,8 +14281,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -14306,8 +14307,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -14332,8 +14333,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
@@ -14358,8 +14359,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
@@ -14384,8 +14385,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -14410,8 +14411,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -14436,8 +14437,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -14475,36 +14476,36 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14529,8 +14530,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14555,8 +14556,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -14581,8 +14582,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -14607,8 +14608,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -14633,8 +14634,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -14659,8 +14660,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -14685,8 +14686,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -14711,8 +14712,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -14737,8 +14738,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -14763,8 +14764,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -14789,8 +14790,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -14815,8 +14816,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -14841,8 +14842,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -14867,8 +14868,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -14893,8 +14894,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -14919,8 +14920,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -14945,8 +14946,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -14971,8 +14972,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -14997,8 +14998,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -15023,8 +15024,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -15049,8 +15050,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -15075,8 +15076,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -15101,8 +15102,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -15127,8 +15128,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -15153,8 +15154,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -15179,8 +15180,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -15205,8 +15206,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -15231,8 +15232,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -15257,8 +15258,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -15283,8 +15284,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -15309,8 +15310,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -15335,8 +15336,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -15361,8 +15362,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -15387,8 +15388,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -15413,8 +15414,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -15439,8 +15440,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -15465,8 +15466,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -15491,8 +15492,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -15517,8 +15518,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -15543,8 +15544,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -15569,8 +15570,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -15595,8 +15596,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -15621,8 +15622,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -15647,8 +15648,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -15673,8 +15674,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -15699,8 +15700,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -15725,8 +15726,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -15751,8 +15752,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -15777,8 +15778,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -15803,8 +15804,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -15829,8 +15830,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -15855,8 +15856,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -15881,8 +15882,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -15907,8 +15908,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -15933,8 +15934,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -15959,8 +15960,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -15985,8 +15986,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -16011,8 +16012,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -16037,8 +16038,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -16063,8 +16064,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -16100,30 +16101,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -16145,8 +16146,8 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -16168,8 +16169,8 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -16191,8 +16192,8 @@
         <v>54.76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -16214,8 +16215,8 @@
         <v>82.61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -16237,8 +16238,8 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -16260,8 +16261,8 @@
         <v>48.98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -16283,8 +16284,8 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -16306,8 +16307,8 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -16329,8 +16330,8 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -16363,30 +16364,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -16408,8 +16409,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -16431,8 +16432,8 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -16454,8 +16455,8 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -16477,8 +16478,8 @@
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -16500,8 +16501,8 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -16523,8 +16524,8 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -16546,8 +16547,8 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -16569,8 +16570,8 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -16603,30 +16604,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -16648,8 +16649,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -16671,8 +16672,8 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -16694,8 +16695,8 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -16717,8 +16718,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -16740,8 +16741,8 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -16763,8 +16764,8 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -16786,8 +16787,8 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -16809,8 +16810,8 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -16832,8 +16833,8 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -16855,8 +16856,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -16878,8 +16879,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -16901,8 +16902,8 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -16935,30 +16936,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -16980,8 +16981,8 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -17003,8 +17004,8 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -17026,8 +17027,8 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -17049,8 +17050,8 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -17072,8 +17073,8 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -17095,8 +17096,8 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -17118,8 +17119,8 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -17152,30 +17153,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -17197,8 +17198,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -17220,8 +17221,8 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -17243,8 +17244,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -17266,8 +17267,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -17289,8 +17290,8 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -17312,8 +17313,8 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -17335,8 +17336,8 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -17358,8 +17359,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -17392,30 +17393,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -17437,8 +17438,8 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -17460,8 +17461,8 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -17483,8 +17484,8 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -17506,8 +17507,8 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -17529,8 +17530,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -17552,8 +17553,8 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -17586,30 +17587,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -17631,8 +17632,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -17654,8 +17655,8 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -17677,8 +17678,8 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -17700,8 +17701,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -17723,8 +17724,8 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -17746,8 +17747,8 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -17769,8 +17770,8 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -17792,8 +17793,8 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -17815,8 +17816,8 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -17838,8 +17839,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -17861,8 +17862,8 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -17884,8 +17885,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -17918,30 +17919,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -17963,8 +17964,8 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -17986,8 +17987,8 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -18009,8 +18010,8 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -18032,8 +18033,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -18055,8 +18056,8 @@
         <v>26.19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -18078,8 +18079,8 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -18101,8 +18102,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -18124,8 +18125,8 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -18147,8 +18148,8 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -18181,30 +18182,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -18226,8 +18227,8 @@
         <v>7.2770000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -18260,36 +18261,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -18317,8 +18318,8 @@
         <v>44.706000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -18346,8 +18347,8 @@
         <v>6.452</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -18386,36 +18387,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -18443,8 +18444,8 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -18472,8 +18473,8 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -18501,8 +18502,8 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -18530,8 +18531,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -18570,36 +18571,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -18627,8 +18628,8 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -18656,8 +18657,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -18685,8 +18686,8 @@
         <v>20.43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -18714,8 +18715,8 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -18754,36 +18755,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -18811,8 +18812,8 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -18840,8 +18841,8 @@
         <v>83.53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -18869,8 +18870,8 @@
         <v>21.51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -18898,8 +18899,8 @@
         <v>12.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -18938,36 +18939,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -18995,8 +18996,8 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -19024,8 +19025,8 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -19053,8 +19054,8 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -19095,36 +19096,36 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -19152,8 +19153,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -19181,8 +19182,8 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -19210,8 +19211,8 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -19250,36 +19251,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -19307,8 +19308,8 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -19336,8 +19337,8 @@
         <v>30.59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -19365,8 +19366,8 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -19394,8 +19395,8 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -19434,36 +19435,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -19491,8 +19492,8 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -19520,8 +19521,8 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -19549,8 +19550,8 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -19578,8 +19579,8 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
